--- a/utils/template.xlsx
+++ b/utils/template.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaohuag\Documents\py\Data_Handle\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7741531D-CB99-4CA2-A61B-30E4469349AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797AD816-4E4E-47AE-A3BF-C4A99C9A4496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DF03CA4E-EB3B-4B9A-AE66-F96449DA53E3}"/>
+    <workbookView xWindow="4404" yWindow="1104" windowWidth="17280" windowHeight="8964" xr2:uid="{DF03CA4E-EB3B-4B9A-AE66-F96449DA53E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Spec" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1453,22 +1450,17 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1486,10 +1478,15 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -2552,23 +2549,9 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Versal VC1902 ES2</a:t>
+              <a:t>Spec Line</a:t>
             </a:r>
-            <a:br>
-              <a:rPr lang="en-US"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>PCIeA#0 Reset, Gen4x8 RP @ </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>110C</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3045,23 +3028,9 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Versal VC1902 ES2</a:t>
+              <a:t>3-sigma Chart</a:t>
             </a:r>
-            <a:br>
-              <a:rPr lang="en-US"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>PCIeA#0 Reset, Gen4x8 RP @ </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>110C</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5438,245 +5407,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ShaoHua"/>
-      <sheetName val="Utility"/>
-      <sheetName val="TILO"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="J5">
-            <v>7.1006999999999998</v>
-          </cell>
-          <cell r="L5">
-            <v>0.53</v>
-          </cell>
-          <cell r="X5">
-            <v>0.56000000000000005</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>7.1802000000000001</v>
-          </cell>
-          <cell r="L6">
-            <v>0.52</v>
-          </cell>
-          <cell r="X6">
-            <v>0.63</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>7.2797000000000001</v>
-          </cell>
-          <cell r="L7">
-            <v>0.54</v>
-          </cell>
-          <cell r="X7">
-            <v>0.57999999999999996</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>7.2548000000000004</v>
-          </cell>
-          <cell r="L8">
-            <v>0.52</v>
-          </cell>
-          <cell r="X8">
-            <v>0.56000000000000005</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>7.3654999999999999</v>
-          </cell>
-          <cell r="L9">
-            <v>0.53</v>
-          </cell>
-          <cell r="X9">
-            <v>0.56999999999999995</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>7.0366999999999997</v>
-          </cell>
-          <cell r="L10">
-            <v>0.51</v>
-          </cell>
-          <cell r="X10">
-            <v>0.56000000000000005</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>7.6140999999999996</v>
-          </cell>
-          <cell r="L11">
-            <v>0.53</v>
-          </cell>
-          <cell r="X11">
-            <v>0.57999999999999996</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>8.8394999999999992</v>
-          </cell>
-          <cell r="L12">
-            <v>0.57999999999999996</v>
-          </cell>
-          <cell r="X12">
-            <v>0.64</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>9.1380999999999997</v>
-          </cell>
-          <cell r="L13">
-            <v>0.57999999999999996</v>
-          </cell>
-          <cell r="X13">
-            <v>0.64</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="J14">
-            <v>7.7572000000000001</v>
-          </cell>
-          <cell r="L14">
-            <v>0.54</v>
-          </cell>
-          <cell r="X14">
-            <v>0.57999999999999996</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="J15">
-            <v>9.4933999999999994</v>
-          </cell>
-          <cell r="L15">
-            <v>0.57999999999999996</v>
-          </cell>
-          <cell r="X15">
-            <v>0.66</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="J16">
-            <v>9.2236999999999991</v>
-          </cell>
-          <cell r="L16">
-            <v>0.57999999999999996</v>
-          </cell>
-          <cell r="X16">
-            <v>0.65</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="J17">
-            <v>9.0421999999999993</v>
-          </cell>
-          <cell r="L17">
-            <v>0.57999999999999996</v>
-          </cell>
-          <cell r="X17">
-            <v>0.77500000000000002</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="J18">
-            <v>6.0235000000000003</v>
-          </cell>
-          <cell r="L18">
-            <v>0.61</v>
-          </cell>
-          <cell r="X18">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="J19">
-            <v>6.1513</v>
-          </cell>
-          <cell r="L19">
-            <v>0.54</v>
-          </cell>
-          <cell r="X19">
-            <v>0.52</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="J20">
-            <v>6.3197999999999999</v>
-          </cell>
-          <cell r="L20">
-            <v>0.52</v>
-          </cell>
-          <cell r="X20">
-            <v>0.54</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="J21">
-            <v>9.1769999999999996</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="J22">
-            <v>9.3262999999999998</v>
-          </cell>
-          <cell r="X22">
-            <v>0.65</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="J23">
-            <v>9.0632000000000001</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="J24">
-            <v>6.2422000000000004</v>
-          </cell>
-          <cell r="L24">
-            <v>0.66</v>
-          </cell>
-          <cell r="X24">
-            <v>0.53</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="J25">
-            <v>6.1017000000000001</v>
-          </cell>
-          <cell r="L25">
-            <v>0.53</v>
-          </cell>
-          <cell r="X25">
-            <v>0.53</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="J26">
-            <v>6.0511999999999997</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5976,8 +5706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1EB7E8-9F04-4119-AD4D-6769893E11C2}">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6124,7 +5854,7 @@
         <v>0.61</v>
       </c>
       <c r="Y4" s="24">
-        <f t="shared" ref="Y3:Y23" si="0">X4+3*$X$38</f>
+        <f t="shared" ref="Y4:Y22" si="0">X4+3*$X$38</f>
         <v>0.73</v>
       </c>
     </row>
@@ -6290,7 +6020,7 @@
       <c r="H11" s="24">
         <v>0.67600000000000005</v>
       </c>
-      <c r="I11" s="44"/>
+      <c r="I11" s="32"/>
       <c r="W11" s="24">
         <v>7.7572000000000001</v>
       </c>
@@ -6310,7 +6040,7 @@
       <c r="H12" s="24">
         <v>0.67600000000000005</v>
       </c>
-      <c r="I12" s="44"/>
+      <c r="I12" s="32"/>
       <c r="W12" s="24">
         <v>9.4933999999999994</v>
       </c>
@@ -6330,7 +6060,7 @@
       <c r="H13" s="24">
         <v>0.77500000000000002</v>
       </c>
-      <c r="I13" s="44"/>
+      <c r="I13" s="32"/>
       <c r="W13" s="24">
         <v>9.2236999999999991</v>
       </c>
@@ -6360,7 +6090,7 @@
       <c r="H14" s="24">
         <v>0.77500000000000002</v>
       </c>
-      <c r="I14" s="44"/>
+      <c r="I14" s="32"/>
       <c r="W14" s="24">
         <v>9.0421999999999993</v>
       </c>
@@ -6387,7 +6117,7 @@
       <c r="H15" s="24">
         <v>0.85399999999999998</v>
       </c>
-      <c r="I15" s="44"/>
+      <c r="I15" s="32"/>
       <c r="W15" s="24">
         <v>6.0235000000000003</v>
       </c>
@@ -6417,7 +6147,7 @@
       <c r="H16" s="24">
         <v>0.85399999999999998</v>
       </c>
-      <c r="I16" s="44"/>
+      <c r="I16" s="32"/>
       <c r="W16" s="24">
         <v>6.1513</v>
       </c>
@@ -6600,8 +6330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CF986A-6963-44BD-AC24-CF6EFFB1083A}">
   <dimension ref="A1:AX42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6634,156 +6364,156 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43" t="s">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43" t="s">
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="35" t="s">
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="35" t="s">
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="43" t="s">
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43" t="s">
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="37"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="35"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41" t="s">
+      <c r="H3" s="39"/>
+      <c r="I3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="32" t="s">
+      <c r="J3" s="41"/>
+      <c r="K3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="33" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="32" t="s">
+      <c r="N3" s="43"/>
+      <c r="O3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33" t="s">
+      <c r="P3" s="36"/>
+      <c r="Q3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="34"/>
-      <c r="S3" s="32" t="s">
+      <c r="R3" s="43"/>
+      <c r="S3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="33" t="s">
+      <c r="T3" s="36"/>
+      <c r="U3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="34"/>
-      <c r="W3" s="32" t="s">
+      <c r="V3" s="43"/>
+      <c r="W3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="33" t="s">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="32" t="s">
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="33" t="s">
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="32" t="s">
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="33" t="s">
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="32" t="s">
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="33" t="s">
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="32" t="s">
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="33" t="s">
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="32" t="s">
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="33" t="s">
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="33"/>
-      <c r="AX3" s="34"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="43"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -10406,28 +10136,6 @@
     <row r="42" spans="2:50" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AW3:AX3"/>
     <mergeCell ref="AA2:AD2"/>
@@ -10441,6 +10149,28 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AU2:AV2"/>
     <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/utils/template.xlsx
+++ b/utils/template.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaohuag\Documents\py\Data_Handle\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797AD816-4E4E-47AE-A3BF-C4A99C9A4496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F23D669-4ADD-45B3-8CAE-8F8F084A5E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4404" yWindow="1104" windowWidth="17280" windowHeight="8964" xr2:uid="{DF03CA4E-EB3B-4B9A-AE66-F96449DA53E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DF03CA4E-EB3B-4B9A-AE66-F96449DA53E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Spec" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Final Report" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -757,7 +758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="102">
   <si>
     <t>Test_Name</t>
   </si>
@@ -1028,12 +1029,48 @@
   <si>
     <t>STD</t>
   </si>
+  <si>
+    <t>D3HP</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Voltage Diff (mv)</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>Dash Line</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Versal VC1902 ES2 Final Report</t>
+  </si>
+  <si>
+    <t>Pattern Name</t>
+  </si>
+  <si>
+    <t>Vmin Spec</t>
+  </si>
+  <si>
+    <t>Dash-1</t>
+  </si>
+  <si>
+    <t>Dash-2</t>
+  </si>
+  <si>
+    <t>Dash-3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,8 +1171,31 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="6" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1252,6 +1312,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -1365,7 +1443,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1451,10 +1529,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,15 +1562,46 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -1817,253 +1932,6 @@
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>dash-2LP</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>8.077</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>8.077</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:xVal>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7D74-4E11-BC39-44032EE07D93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>dash-2MP</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>6.3819999999999997</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>6.3819999999999997</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:xVal>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7D74-4E11-BC39-44032EE07D93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>dash-2HP</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>18.91</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>18.91</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:xVal>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7D74-4E11-BC39-44032EE07D93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>dash-1MP</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>6.649</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>6.649</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:xVal>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7D74-4E11-BC39-44032EE07D93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>dash-1LP</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>8.4700000000000006</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>8.4700000000000006</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:xVal>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7D74-4E11-BC39-44032EE07D93}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2149,6 +2017,263 @@
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-7D74-4E11-BC39-44032EE07D93}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>dash-2LP</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="2"/>
+                    <c:pt idx="0">
+                      <c:v>8.077</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>8.077</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:xVal>
+                <c:yVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="2"/>
+                    <c:pt idx="0">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-7D74-4E11-BC39-44032EE07D93}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>dash-2MP</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="2"/>
+                    <c:pt idx="0">
+                      <c:v>6.3819999999999997</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>6.3819999999999997</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:xVal>
+                <c:yVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="2"/>
+                    <c:pt idx="0">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-7D74-4E11-BC39-44032EE07D93}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>dash-2HP</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="2"/>
+                    <c:pt idx="0">
+                      <c:v>18.91</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>18.91</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:xVal>
+                <c:yVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="2"/>
+                    <c:pt idx="0">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-7D74-4E11-BC39-44032EE07D93}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>dash-1MP</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="2"/>
+                    <c:pt idx="0">
+                      <c:v>6.649</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>6.649</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:xVal>
+                <c:yVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="2"/>
+                    <c:pt idx="0">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-7D74-4E11-BC39-44032EE07D93}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:v>dash-1LP</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="2"/>
+                    <c:pt idx="0">
+                      <c:v>8.4700000000000006</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>8.4700000000000006</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:xVal>
+                <c:yVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="2"/>
+                    <c:pt idx="0">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-7D74-4E11-BC39-44032EE07D93}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2404,7 +2529,7 @@
         <c:crossAx val="679542816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="3.0000000000000006E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="679543600"/>
@@ -2913,7 +3038,7 @@
         <c:crossAx val="679542816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3089,7 +3214,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -3533,7 +3658,513 @@
         <c:crossAx val="679542816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>dash1 V</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>dash-1LP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>8.4700000000000006</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>8.4700000000000006</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FBFE-4CE0-A43F-3E2F5C8EFA7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="679543992"/>
+        <c:axId val="679543600"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="679543600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="679543992"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="679543992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="679543600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>dash2 V</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>dash-1MP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>6.649</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>6.649</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4B18-4EB4-89AE-69E21E15384A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="679543992"/>
+        <c:axId val="679543600"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="679543600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="679543992"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="679543992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="679543600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3731,6 +4362,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5279,20 +5990,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>584947</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>44039</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>181199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5324,16 +7067,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>569707</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257287</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>181199</xdr:rowOff>
+      <xdr:rowOff>143099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5399,6 +7142,88 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>554467</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>66899</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF06ECFB-BCE0-4C22-A69B-7A4880CE3D10}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{22A10647-D911-46D6-8E7C-7B7EE8E1A3BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>508747</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>51659</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F54DB9-EB63-47BE-B79E-722290B26E00}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{22A10647-D911-46D6-8E7C-7B7EE8E1A3BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5706,8 +7531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1EB7E8-9F04-4119-AD4D-6769893E11C2}">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5744,6 +7569,9 @@
       <c r="J1" s="25" t="s">
         <v>79</v>
       </c>
+      <c r="K1" s="45" t="s">
+        <v>90</v>
+      </c>
       <c r="W1" s="24" t="s">
         <v>81</v>
       </c>
@@ -5782,6 +7610,9 @@
       <c r="J2" s="25">
         <v>22.335000000000001</v>
       </c>
+      <c r="K2" s="24">
+        <v>16.792000000000002</v>
+      </c>
       <c r="W2" s="24">
         <v>7.1006999999999998</v>
       </c>
@@ -5820,6 +7651,9 @@
       </c>
       <c r="J3" s="27">
         <v>8.2669999999999995</v>
+      </c>
+      <c r="K3" s="24">
+        <v>5.8170000000000002</v>
       </c>
       <c r="W3" s="24">
         <v>7.1802000000000001</v>
@@ -5847,6 +7681,7 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
+      <c r="K4" s="24"/>
       <c r="W4" s="24">
         <v>7.2797000000000001</v>
       </c>
@@ -5878,6 +7713,7 @@
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
+      <c r="K5" s="24"/>
       <c r="W5" s="24">
         <v>7.2548000000000004</v>
       </c>
@@ -5917,6 +7753,7 @@
       <c r="J6" s="25">
         <v>4.3780000000000001</v>
       </c>
+      <c r="K6" s="24"/>
       <c r="W6" s="24">
         <v>7.3654999999999999</v>
       </c>
@@ -6172,6 +8009,9 @@
       <c r="D17">
         <v>-40</v>
       </c>
+      <c r="J17" t="s">
+        <v>95</v>
+      </c>
       <c r="W17" s="24">
         <v>6.3197999999999999</v>
       </c>
@@ -6191,6 +8031,9 @@
       <c r="Y18" s="24"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
       <c r="W19" s="24">
         <v>9.3262999999999998</v>
       </c>
@@ -6198,6 +8041,15 @@
       <c r="Y19" s="24"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F20" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="47">
+        <v>8.67</v>
+      </c>
+      <c r="H20" s="46">
+        <v>0</v>
+      </c>
       <c r="W20" s="24">
         <v>9.0632000000000001</v>
       </c>
@@ -6205,6 +8057,13 @@
       <c r="Y20" s="24"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F21" s="46"/>
+      <c r="G21" s="47">
+        <v>8.67</v>
+      </c>
+      <c r="H21" s="46">
+        <v>1</v>
+      </c>
       <c r="W21" s="24">
         <v>6.2422000000000004</v>
       </c>
@@ -6217,6 +8076,13 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F22" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="47">
+        <v>8.2669999999999995</v>
+      </c>
+      <c r="H22" s="46"/>
       <c r="W22" s="24">
         <v>6.1017000000000001</v>
       </c>
@@ -6229,6 +8095,11 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F23" s="46"/>
+      <c r="G23" s="47">
+        <v>8.2669999999999995</v>
+      </c>
+      <c r="H23" s="46"/>
       <c r="W23" s="24">
         <v>6.0511999999999997</v>
       </c>
@@ -6236,31 +8107,67 @@
       <c r="Y23" s="24"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F24" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="47">
+        <v>6.976</v>
+      </c>
+      <c r="H24" s="46"/>
       <c r="W24" s="24"/>
       <c r="X24" s="24"/>
       <c r="Y24" s="24"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F25" s="46"/>
+      <c r="G25" s="47">
+        <v>6.976</v>
+      </c>
+      <c r="H25" s="46"/>
       <c r="W25" s="24"/>
       <c r="X25" s="24"/>
       <c r="Y25" s="24"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F26" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="47">
+        <v>6.52</v>
+      </c>
+      <c r="H26" s="46"/>
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
       <c r="Y26" s="24"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F27" s="46"/>
+      <c r="G27" s="47">
+        <v>6.52</v>
+      </c>
+      <c r="H27" s="46"/>
       <c r="W27" s="24"/>
       <c r="X27" s="24"/>
       <c r="Y27" s="24"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F28" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="46">
+        <v>5.8170000000000002</v>
+      </c>
+      <c r="H28" s="46"/>
       <c r="W28" s="24"/>
       <c r="X28" s="24"/>
       <c r="Y28" s="24"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F29" s="46"/>
+      <c r="G29" s="46">
+        <v>5.8170000000000002</v>
+      </c>
+      <c r="H29" s="46"/>
       <c r="W29" s="24"/>
       <c r="X29" s="24"/>
       <c r="Y29" s="24"/>
@@ -6331,7 +8238,7 @@
   <dimension ref="A1:AX42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6364,156 +8271,156 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33" t="s">
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33" t="s">
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="34" t="s">
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="34" t="s">
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="34" t="s">
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="33" t="s">
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33" t="s">
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33" t="s">
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="35"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="37"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="36" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="42" t="s">
+      <c r="L3" s="38"/>
+      <c r="M3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="36" t="s">
+      <c r="N3" s="34"/>
+      <c r="O3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="42" t="s">
+      <c r="P3" s="38"/>
+      <c r="Q3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="43"/>
-      <c r="S3" s="36" t="s">
+      <c r="R3" s="34"/>
+      <c r="S3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="42" t="s">
+      <c r="T3" s="38"/>
+      <c r="U3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="43"/>
-      <c r="W3" s="36" t="s">
+      <c r="V3" s="34"/>
+      <c r="W3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="42" t="s">
+      <c r="X3" s="38"/>
+      <c r="Y3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="36" t="s">
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="42" t="s">
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="36" t="s">
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="42" t="s">
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="36" t="s">
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="42" t="s">
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="36" t="s">
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="42" t="s">
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="36" t="s">
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="42" t="s">
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="43"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="34"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -10136,6 +12043,28 @@
     <row r="42" spans="2:50" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AW3:AX3"/>
     <mergeCell ref="AA2:AD2"/>
@@ -10149,28 +12078,6 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AU2:AV2"/>
     <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10181,4 +12088,1142 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E99930-13DA-490E-BA89-B93EC8C2AC17}">
+  <dimension ref="B2:K99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B2" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="54"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="49"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="49"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="49"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="49"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="49"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="49"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="49"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="49"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="49"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="63"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="63"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="63"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="63"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="63"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="63"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="63"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="63"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="63"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="63"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="63"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="63"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="63"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="63"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="63"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="63"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="63"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="63"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="63"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="63"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="63"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="63"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="63"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="63"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="63"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="63"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="63"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="63"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="58"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="58"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="58"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="58"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="58"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="58"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="58"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="58"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="58"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="58"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="58"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="58"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="58"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="58"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="58"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="58"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="58"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="58"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="58"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="58"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="58"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="58"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="58"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="58"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="58"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="58"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="58"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="58"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="58"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="58"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="58"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="58"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="57"/>
+      <c r="J92" s="58"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="58"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="58"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="58"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="58"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="57"/>
+      <c r="J97" s="58"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="57"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="57"/>
+      <c r="J98" s="58"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/utils/template.xlsx
+++ b/utils/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaohuag\Documents\py\Data_Handle\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F23D669-4ADD-45B3-8CAE-8F8F084A5E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5B9C18-1231-4178-A736-5BB26E642C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DF03CA4E-EB3B-4B9A-AE66-F96449DA53E3}"/>
   </bookViews>
@@ -758,7 +758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="103">
   <si>
     <t>Test_Name</t>
   </si>
@@ -1036,19 +1036,10 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>Voltage Diff (mv)</t>
-  </si>
-  <si>
-    <t>Margin</t>
-  </si>
-  <si>
     <t>Dash Line</t>
   </si>
   <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>Versal VC1902 ES2 Final Report</t>
   </si>
   <si>
     <t>Pattern Name</t>
@@ -1064,6 +1055,18 @@
   </si>
   <si>
     <t>Dash-3</t>
+  </si>
+  <si>
+    <t>Versal VC1902 ES2 PCIE Final Report</t>
+  </si>
+  <si>
+    <t>Margin (mv)</t>
+  </si>
+  <si>
+    <t>Margin (%)</t>
+  </si>
+  <si>
+    <t>Margin  (%)</t>
   </si>
 </sst>
 </file>
@@ -1172,13 +1175,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="6" tint="0.79998168889431442"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1190,6 +1186,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1320,18 +1323,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1434,6 +1437,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1443,7 +1459,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1529,22 +1545,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1562,46 +1612,42 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -2065,7 +2111,7 @@
                   </c:numLit>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-7D74-4E11-BC39-44032EE07D93}"/>
                   </c:ext>
@@ -2116,7 +2162,7 @@
                   </c:numLit>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-7D74-4E11-BC39-44032EE07D93}"/>
                   </c:ext>
@@ -2218,7 +2264,7 @@
                   </c:numLit>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-7D74-4E11-BC39-44032EE07D93}"/>
                   </c:ext>
@@ -2271,7 +2317,7 @@
                   </c:numLit>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-7D74-4E11-BC39-44032EE07D93}"/>
                   </c:ext>
@@ -7569,7 +7615,7 @@
       <c r="J1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="33" t="s">
         <v>90</v>
       </c>
       <c r="W1" s="24" t="s">
@@ -8010,7 +8056,7 @@
         <v>-40</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W17" s="24">
         <v>6.3197999999999999</v>
@@ -8032,7 +8078,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W19" s="24">
         <v>9.3262999999999998</v>
@@ -8041,13 +8087,13 @@
       <c r="Y19" s="24"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="35">
         <v>8.67</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="34">
         <v>0</v>
       </c>
       <c r="W20" s="24">
@@ -8057,11 +8103,11 @@
       <c r="Y20" s="24"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F21" s="46"/>
-      <c r="G21" s="47">
+      <c r="F21" s="34"/>
+      <c r="G21" s="35">
         <v>8.67</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="34">
         <v>1</v>
       </c>
       <c r="W21" s="24">
@@ -8076,13 +8122,13 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="35">
         <v>8.2669999999999995</v>
       </c>
-      <c r="H22" s="46"/>
+      <c r="H22" s="34"/>
       <c r="W22" s="24">
         <v>6.1017000000000001</v>
       </c>
@@ -8095,11 +8141,11 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F23" s="46"/>
-      <c r="G23" s="47">
+      <c r="F23" s="34"/>
+      <c r="G23" s="35">
         <v>8.2669999999999995</v>
       </c>
-      <c r="H23" s="46"/>
+      <c r="H23" s="34"/>
       <c r="W23" s="24">
         <v>6.0511999999999997</v>
       </c>
@@ -8107,67 +8153,67 @@
       <c r="Y23" s="24"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="35">
         <v>6.976</v>
       </c>
-      <c r="H24" s="46"/>
+      <c r="H24" s="34"/>
       <c r="W24" s="24"/>
       <c r="X24" s="24"/>
       <c r="Y24" s="24"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F25" s="46"/>
-      <c r="G25" s="47">
+      <c r="F25" s="34"/>
+      <c r="G25" s="35">
         <v>6.976</v>
       </c>
-      <c r="H25" s="46"/>
+      <c r="H25" s="34"/>
       <c r="W25" s="24"/>
       <c r="X25" s="24"/>
       <c r="Y25" s="24"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="35">
         <v>6.52</v>
       </c>
-      <c r="H26" s="46"/>
+      <c r="H26" s="34"/>
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
       <c r="Y26" s="24"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F27" s="46"/>
-      <c r="G27" s="47">
+      <c r="F27" s="34"/>
+      <c r="G27" s="35">
         <v>6.52</v>
       </c>
-      <c r="H27" s="46"/>
+      <c r="H27" s="34"/>
       <c r="W27" s="24"/>
       <c r="X27" s="24"/>
       <c r="Y27" s="24"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="34">
         <v>5.8170000000000002</v>
       </c>
-      <c r="H28" s="46"/>
+      <c r="H28" s="34"/>
       <c r="W28" s="24"/>
       <c r="X28" s="24"/>
       <c r="Y28" s="24"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F29" s="46"/>
-      <c r="G29" s="46">
+      <c r="F29" s="34"/>
+      <c r="G29" s="34">
         <v>5.8170000000000002</v>
       </c>
-      <c r="H29" s="46"/>
+      <c r="H29" s="34"/>
       <c r="W29" s="24"/>
       <c r="X29" s="24"/>
       <c r="Y29" s="24"/>
@@ -8271,156 +8317,156 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44" t="s">
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44" t="s">
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="35" t="s">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="35" t="s">
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="44" t="s">
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44" t="s">
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44" t="s">
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="37"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="51"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="38" t="s">
+      <c r="J3" s="59"/>
+      <c r="K3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="33" t="s">
+      <c r="L3" s="52"/>
+      <c r="M3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="38" t="s">
+      <c r="N3" s="54"/>
+      <c r="O3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="33" t="s">
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="34"/>
-      <c r="S3" s="38" t="s">
+      <c r="R3" s="54"/>
+      <c r="S3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="33" t="s">
+      <c r="T3" s="52"/>
+      <c r="U3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="34"/>
-      <c r="W3" s="38" t="s">
+      <c r="V3" s="54"/>
+      <c r="W3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="33" t="s">
+      <c r="X3" s="52"/>
+      <c r="Y3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="38" t="s">
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="33" t="s">
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="38" t="s">
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="33" t="s">
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="38" t="s">
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="33" t="s">
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="38" t="s">
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="33" t="s">
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="38" t="s">
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="33" t="s">
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="33"/>
-      <c r="AX3" s="34"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="53"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="54"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -12043,28 +12089,6 @@
     <row r="42" spans="2:50" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AW3:AX3"/>
     <mergeCell ref="AA2:AD2"/>
@@ -12078,6 +12102,28 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AU2:AV2"/>
     <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12092,10 +12138,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E99930-13DA-490E-BA89-B93EC8C2AC17}">
-  <dimension ref="B2:K99"/>
+  <dimension ref="B2:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12103,1125 +12152,1192 @@
     <col min="2" max="2" width="26.77734375" customWidth="1"/>
     <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="5" max="10" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
+      <c r="F4" s="63"/>
+      <c r="G4" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="53" t="s">
+      <c r="H4" s="65"/>
+      <c r="I4" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="50" t="s">
+      <c r="J4" s="63"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="67"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="55" t="s">
+      <c r="F5" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="55"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="49"/>
+      <c r="G5" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="49"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="49"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="49"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="49"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="49"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="49"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="49"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="49"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="63"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="63"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="63"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="63"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="63"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="63"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="63"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="63"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="63"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="63"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="63"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="43"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="63"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="43"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="63"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="43"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="63"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="43"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="63"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="43"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="63"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="43"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="63"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="43"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="63"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="43"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="63"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="43"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="63"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="43"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="63"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="63"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="63"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="63"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="43"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="63"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="63"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="63"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="43"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="63"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="63"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="63"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="43"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="63"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="43"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="63"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="43"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="63"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="43"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="63"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="43"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="63"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="43"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="63"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="43"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="63"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="43"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="58"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="39"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="58"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="39"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="58"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="39"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="57"/>
-      <c r="J63" s="58"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="39"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="58"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="39"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="58"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="39"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="58"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="39"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="57"/>
-      <c r="J67" s="58"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="39"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="57"/>
-      <c r="J68" s="58"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="39"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="58"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="39"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="57"/>
-      <c r="J70" s="58"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="39"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="57"/>
-      <c r="J71" s="58"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="39"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="58"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="39"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="58"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="39"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="58"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="39"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="57"/>
-      <c r="J75" s="58"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="39"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="58"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="39"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="57"/>
-      <c r="J77" s="58"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="39"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="58"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="39"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="58"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="39"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="57"/>
-      <c r="J80" s="58"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="39"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="57"/>
-      <c r="J81" s="58"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="39"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="57"/>
-      <c r="J82" s="58"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="39"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="57"/>
-      <c r="J83" s="58"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="39"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="58"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="39"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="57"/>
-      <c r="J85" s="58"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="39"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="58"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="39"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="57"/>
-      <c r="J87" s="58"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="39"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="57"/>
-      <c r="J88" s="58"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="39"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="57"/>
-      <c r="J89" s="58"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="39"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="57"/>
-      <c r="J90" s="58"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="39"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="58"/>
-      <c r="I91" s="57"/>
-      <c r="J91" s="58"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="39"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="57"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="57"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="57"/>
-      <c r="J92" s="58"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="39"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="57"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="57"/>
-      <c r="J93" s="58"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="39"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="57"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="57"/>
-      <c r="J94" s="58"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="39"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B95" s="24"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="58"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="58"/>
-      <c r="I95" s="57"/>
-      <c r="J95" s="58"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="39"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="57"/>
-      <c r="H96" s="58"/>
-      <c r="I96" s="57"/>
-      <c r="J96" s="58"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="39"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="57"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="57"/>
-      <c r="H97" s="58"/>
-      <c r="I97" s="57"/>
-      <c r="J97" s="58"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="39"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="58"/>
-      <c r="G98" s="57"/>
-      <c r="H98" s="58"/>
-      <c r="I98" s="57"/>
-      <c r="J98" s="58"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="39"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="57"/>
-      <c r="J99" s="58"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="39"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100" s="47"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B101" s="47"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B102" s="47"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B103" s="47"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B104" s="47"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B105" s="47"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B106" s="47"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B107" s="47"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B108" s="47"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B109" s="47"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B110" s="47"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B111" s="47"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B112" s="47"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="47"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="47"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="48"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="48"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="48"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="48"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="48"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/utils/template.xlsx
+++ b/utils/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaohuag\Documents\py\Data_Handle\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5B9C18-1231-4178-A736-5BB26E642C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ACA69B-6FCD-4EBF-A226-5A1BE8D908C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DF03CA4E-EB3B-4B9A-AE66-F96449DA53E3}"/>
   </bookViews>
@@ -758,7 +758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
   <si>
     <t>Test_Name</t>
   </si>
@@ -1037,9 +1037,6 @@
   </si>
   <si>
     <t>Dash Line</t>
-  </si>
-  <si>
-    <t>W</t>
   </si>
   <si>
     <t>Pattern Name</t>
@@ -1459,7 +1456,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1545,16 +1542,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1578,6 +1569,26 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1641,12 +1652,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7578,7 +7583,7 @@
   <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7588,34 +7593,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="51" t="s">
         <v>90</v>
       </c>
       <c r="W1" s="24" t="s">
@@ -7629,19 +7634,19 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="24">
         <v>110</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="24">
         <v>-40</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="49" t="s">
         <v>80</v>
       </c>
       <c r="G2" s="24">
@@ -7671,19 +7676,19 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="24">
         <v>110</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="24">
         <v>-40</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="49" t="s">
         <v>81</v>
       </c>
       <c r="G3" s="26">
@@ -7708,19 +7713,19 @@
       <c r="Y3" s="24"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="24">
         <v>110</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="24">
         <v>-40</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="49" t="s">
         <v>82</v>
       </c>
       <c r="G4" s="24"/>
@@ -7740,19 +7745,19 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="24">
         <v>110</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="24">
         <v>-40</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="49" t="s">
         <v>83</v>
       </c>
       <c r="G5" s="24"/>
@@ -7772,19 +7777,19 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="24">
         <v>110</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="24">
         <v>-40</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="49" t="s">
         <v>84</v>
       </c>
       <c r="G6" s="24">
@@ -7812,16 +7817,16 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="24">
         <v>110</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="24">
         <v>-40</v>
       </c>
       <c r="W7" s="24">
@@ -7831,16 +7836,16 @@
       <c r="Y7" s="24"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="24">
         <v>110</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="24">
         <v>-40</v>
       </c>
       <c r="W8" s="24">
@@ -7855,16 +7860,16 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="24">
         <v>110</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="24">
         <v>-40</v>
       </c>
       <c r="W9" s="24">
@@ -7879,7 +7884,11 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F10" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="52" t="s">
         <v>85</v>
       </c>
       <c r="W10" s="24">
@@ -7894,7 +7903,11 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F11" s="24" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="F11" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="24">
@@ -7916,7 +7929,11 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F12" s="24"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="24">
         <v>15</v>
       </c>
@@ -7936,7 +7953,11 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F13" s="24" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="F13" s="49" t="s">
         <v>86</v>
       </c>
       <c r="G13" s="24"/>
@@ -7956,19 +7977,19 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="24">
         <v>110</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="24">
         <v>-40</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24">
         <v>0.77500000000000002</v>
@@ -7981,19 +8002,19 @@
       <c r="Y14" s="24"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="24">
         <v>110</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="24">
         <v>-40</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="49" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="24"/>
@@ -8013,19 +8034,19 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="24">
         <v>110</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="24">
         <v>-40</v>
       </c>
-      <c r="F16" s="24"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24">
         <v>0.85399999999999998</v>
@@ -8043,20 +8064,17 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="24">
         <v>110</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="24">
         <v>-40</v>
-      </c>
-      <c r="J17" t="s">
-        <v>93</v>
       </c>
       <c r="W17" s="24">
         <v>6.3197999999999999</v>
@@ -8070,6 +8088,10 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="W18" s="24">
         <v>9.1769999999999996</v>
       </c>
@@ -8077,7 +8099,11 @@
       <c r="Y18" s="24"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F19" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="F19" s="52" t="s">
         <v>92</v>
       </c>
       <c r="W19" s="24">
@@ -8087,13 +8113,17 @@
       <c r="Y19" s="24"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F20" s="34" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="F20" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="34">
         <v>8.67</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="33">
         <v>0</v>
       </c>
       <c r="W20" s="24">
@@ -8103,11 +8133,15 @@
       <c r="Y20" s="24"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F21" s="34"/>
-      <c r="G21" s="35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="34">
         <v>8.67</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="33">
         <v>1</v>
       </c>
       <c r="W21" s="24">
@@ -8122,13 +8156,17 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F22" s="34" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="F22" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="34">
         <v>8.2669999999999995</v>
       </c>
-      <c r="H22" s="34"/>
+      <c r="H22" s="33"/>
       <c r="W22" s="24">
         <v>6.1017000000000001</v>
       </c>
@@ -8141,11 +8179,15 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F23" s="34"/>
-      <c r="G23" s="35">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="34">
         <v>8.2669999999999995</v>
       </c>
-      <c r="H23" s="34"/>
+      <c r="H23" s="33"/>
       <c r="W23" s="24">
         <v>6.0511999999999997</v>
       </c>
@@ -8153,67 +8195,87 @@
       <c r="Y23" s="24"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F24" s="34" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="F24" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="34">
         <v>6.976</v>
       </c>
-      <c r="H24" s="34"/>
+      <c r="H24" s="33"/>
       <c r="W24" s="24"/>
       <c r="X24" s="24"/>
       <c r="Y24" s="24"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F25" s="34"/>
-      <c r="G25" s="35">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="34">
         <v>6.976</v>
       </c>
-      <c r="H25" s="34"/>
+      <c r="H25" s="33"/>
       <c r="W25" s="24"/>
       <c r="X25" s="24"/>
       <c r="Y25" s="24"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F26" s="34" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="F26" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="34">
         <v>6.52</v>
       </c>
-      <c r="H26" s="34"/>
+      <c r="H26" s="33"/>
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
       <c r="Y26" s="24"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F27" s="34"/>
-      <c r="G27" s="35">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="34">
         <v>6.52</v>
       </c>
-      <c r="H27" s="34"/>
+      <c r="H27" s="33"/>
       <c r="W27" s="24"/>
       <c r="X27" s="24"/>
       <c r="Y27" s="24"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F28" s="36" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="F28" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="33">
         <v>5.8170000000000002</v>
       </c>
-      <c r="H28" s="34"/>
+      <c r="H28" s="33"/>
       <c r="W28" s="24"/>
       <c r="X28" s="24"/>
       <c r="Y28" s="24"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F29" s="34"/>
-      <c r="G29" s="34">
+      <c r="F29" s="53"/>
+      <c r="G29" s="33">
         <v>5.8170000000000002</v>
       </c>
-      <c r="H29" s="34"/>
+      <c r="H29" s="33"/>
       <c r="W29" s="24"/>
       <c r="X29" s="24"/>
       <c r="Y29" s="24"/>
@@ -8317,156 +8379,156 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49" t="s">
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49" t="s">
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="50" t="s">
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="50" t="s">
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="50" t="s">
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="49" t="s">
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49" t="s">
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49" t="s">
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="51"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="57"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="52" t="s">
+      <c r="J3" s="65"/>
+      <c r="K3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53" t="s">
+      <c r="L3" s="58"/>
+      <c r="M3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="52" t="s">
+      <c r="N3" s="60"/>
+      <c r="O3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53" t="s">
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="54"/>
-      <c r="S3" s="52" t="s">
+      <c r="R3" s="60"/>
+      <c r="S3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="52"/>
-      <c r="U3" s="53" t="s">
+      <c r="T3" s="58"/>
+      <c r="U3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="54"/>
-      <c r="W3" s="52" t="s">
+      <c r="V3" s="60"/>
+      <c r="W3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="53" t="s">
+      <c r="X3" s="58"/>
+      <c r="Y3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="52" t="s">
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="53" t="s">
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="52" t="s">
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="53" t="s">
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="52" t="s">
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="53" t="s">
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="52" t="s">
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="53" t="s">
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="52" t="s">
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="53" t="s">
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="53"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="54"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="60"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -12144,7 +12206,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12156,1166 +12218,1166 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="71"/>
+      <c r="I4" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="69"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="73"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="63"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="67"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70" t="s">
+      <c r="F5" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="G5" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="I5" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="45"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="37"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="37"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="37"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="37"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="37"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="37"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="37"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="45"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="37"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="45"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="45"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="45"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="45"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="45"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="45"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="45"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="41"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="45"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="41"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="45"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="45"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="41"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="45"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="45"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="45"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="41"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="45"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="41"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="45"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="45"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="41"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="45"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="41"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="45"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="45"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="41"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="45"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="41"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="45"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="41"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="45"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="41"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="45"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="41"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="45"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="45"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="41"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="45"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="41"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="45"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="45"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="41"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="45"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="41"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="45"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="41"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="45"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="41"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="45"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="41"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="45"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="45"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="41"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="45"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="41"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="45"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="41"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="45"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="41"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="45"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="41"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="45"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="41"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="45"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="41"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="45"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="41"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="45"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="46"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="39"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="37"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="46"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="39"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="37"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="46"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="39"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="37"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="46"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="39"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="37"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="46"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="39"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="37"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="46"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="39"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="37"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="46"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="39"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="37"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="46"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="39"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="37"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="46"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="39"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="37"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="46"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="39"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="37"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="46"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="39"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="37"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="46"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="39"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="37"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="46"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="39"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="37"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="46"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="39"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="37"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="46"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="39"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="37"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="46"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="39"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="37"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="46"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="39"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="37"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="46"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="39"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="37"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="46"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="39"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="37"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="46"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="39"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="37"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B80" s="46"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="39"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="37"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="46"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="39"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="37"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="46"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="39"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="37"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="46"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="25"/>
       <c r="D83" s="25"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="39"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="37"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B84" s="46"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="39"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="37"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="46"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="39"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="37"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="46"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="25"/>
       <c r="D86" s="25"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="39"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="37"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" s="46"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="25"/>
       <c r="D87" s="25"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="39"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="37"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="46"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="25"/>
       <c r="D88" s="25"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="39"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="37"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" s="46"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="39"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="37"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B90" s="46"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="39"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="37"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B91" s="46"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="39"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="37"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B92" s="46"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="39"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="37"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B93" s="46"/>
+      <c r="B93" s="44"/>
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="39"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="37"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B94" s="46"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="25"/>
       <c r="D94" s="25"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="39"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="37"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B95" s="46"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="25"/>
       <c r="D95" s="25"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="39"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="37"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B96" s="46"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="25"/>
       <c r="D96" s="25"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="39"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="37"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B97" s="46"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="25"/>
       <c r="D97" s="25"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="39"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="37"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B98" s="46"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="25"/>
       <c r="D98" s="25"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="39"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="37"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B99" s="46"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="25"/>
       <c r="D99" s="25"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="39"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="37"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B100" s="47"/>
+      <c r="B100" s="45"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B101" s="47"/>
+      <c r="B101" s="45"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B102" s="47"/>
+      <c r="B102" s="45"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B103" s="47"/>
+      <c r="B103" s="45"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B104" s="47"/>
+      <c r="B104" s="45"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B105" s="47"/>
+      <c r="B105" s="45"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B106" s="47"/>
+      <c r="B106" s="45"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B107" s="47"/>
+      <c r="B107" s="45"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B108" s="47"/>
+      <c r="B108" s="45"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B109" s="47"/>
+      <c r="B109" s="45"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B110" s="47"/>
+      <c r="B110" s="45"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B111" s="47"/>
+      <c r="B111" s="45"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B112" s="47"/>
+      <c r="B112" s="45"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="47"/>
+      <c r="B113" s="45"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="47"/>
+      <c r="B114" s="45"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" s="48"/>
+      <c r="B115" s="46"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" s="48"/>
+      <c r="B116" s="46"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" s="48"/>
+      <c r="B117" s="46"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" s="48"/>
+      <c r="B118" s="46"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" s="48"/>
+      <c r="B119" s="46"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
